--- a/ExcelConfig/pbjson/excel/阴谋总表.xlsx
+++ b/ExcelConfig/pbjson/excel/阴谋总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC02041-98ED-4E0B-A807-6F4D59A50287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6BECD8-D0B0-4D25-B362-BFAAA13EF705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="5460" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="5265" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#阴谋总表" sheetId="1" r:id="rId1"/>
@@ -222,13 +222,13 @@
     <t>阴谋酝酿中…...</t>
   </si>
   <si>
-    <t>国王已与组织达成契约：只要能够制止亲王兵变，便将猫咪视为国宝，提升我们在人类社会中的地位。我们也可以趁此机会拓宽势力，为接管这个国家做好准备。
-监视亲王安彼西奥，尝试破坏发起兵变的各项准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪圣杯是古埃及盗取的神器之一。最近，在因西亚王城有着圣杯出没的传闻。我们需要在当地发展我们的组织，寻找蛛丝马迹。
-积累猫咪影响力后，执行“猫咪巡游”、“猫咪仪式”与“猫咪集会”，取得线索并找到圣杯所在。</t>
+    <t>猫咪圣杯是古埃及被人类盗取的神器之一。最近，在因西亚王城有着有关的传闻。我们需要在当地发展我们的组织，寻找圣杯的蛛丝马迹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王与组织达成契约：
+&lt;color=570000&gt;制止亲王兵变&lt;/color&gt;后，猫咪将被视为国宝。
+我们也可以趁此机会拓宽势力，为接管这个国家做好准备。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,10 +702,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -858,6 +858,7 @@
     <hyperlink ref="E1" r:id="rId1" xr:uid="{A032FE53-029B-4B61-84B5-427A53616F62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/阴谋总表.xlsx
+++ b/ExcelConfig/pbjson/excel/阴谋总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6BECD8-D0B0-4D25-B362-BFAAA13EF705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2CE325-D879-45AD-8ED2-AAF9F3C78B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="5265" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="3855" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#阴谋总表" sheetId="1" r:id="rId1"/>
@@ -214,21 +214,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自古埃及衰落以来，人类对猫咪的迫害已延续了千年，近些年来更是进一步加剧。为了猫咪族群的生存与延续，是时候重新取得对人类的统治了。
-如果能将猫咪渗透进人类的政治组织中，逐步提升猫咪影响，并取得必要的猫咪圣器，那么便可以结束人类对我们的压迫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阴谋酝酿中…...</t>
-  </si>
-  <si>
-    <t>猫咪圣杯是古埃及被人类盗取的神器之一。最近，在因西亚王城有着有关的传闻。我们需要在当地发展我们的组织，寻找圣杯的蛛丝马迹。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国王与组织达成契约：
 &lt;color=570000&gt;制止亲王兵变&lt;/color&gt;后，猫咪将被视为国宝。
 我们也可以趁此机会拓宽势力，为接管这个国家做好准备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪圣杯是被人类盗取的神器之一。
+它本已销声匿迹多年。但在最近，出现了有关它的传闻。
+我们必须&lt;color=570000&gt;找回猫咪圣杯&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自古埃及衰落以来，人类对猫咪的迫害已延续了千年。
+为了猫咪族群的生存与延续，是时候&lt;color=570000&gt;推翻人类的统治&lt;/color&gt;了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +650,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,10 +704,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -740,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -755,7 +757,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -770,7 +772,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -785,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -800,7 +802,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -815,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -830,10 +832,10 @@
         <v>19</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -849,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/阴谋总表.xlsx
+++ b/ExcelConfig/pbjson/excel/阴谋总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2CE325-D879-45AD-8ED2-AAF9F3C78B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311AAAAD-6D77-46A5-B0CD-DFE30320FDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3855" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3285" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#阴谋总表" sheetId="1" r:id="rId1"/>
@@ -218,19 +218,19 @@
   </si>
   <si>
     <t>国王与组织达成契约：
-&lt;color=570000&gt;制止亲王兵变&lt;/color&gt;后，猫咪将被视为国宝。
+&lt;color=#570000&gt;制止亲王兵变&lt;/color&gt;后，猫咪将被视为国宝。
 我们也可以趁此机会拓宽势力，为接管这个国家做好准备。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>猫咪圣杯是被人类盗取的神器之一。
 它本已销声匿迹多年。但在最近，出现了有关它的传闻。
-我们必须&lt;color=570000&gt;找回猫咪圣杯&lt;/color&gt;。</t>
+我们必须&lt;color=#570000&gt;找回猫咪圣杯&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自古埃及衰落以来，人类对猫咪的迫害已延续了千年。
-为了猫咪族群的生存与延续，是时候&lt;color=570000&gt;推翻人类的统治&lt;/color&gt;了。</t>
+为了猫咪族群的生存与延续，猫咪共济会将&lt;color=#570000&gt;推翻人类的统治&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/ExcelConfig/pbjson/excel/阴谋总表.xlsx
+++ b/ExcelConfig/pbjson/excel/阴谋总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311AAAAD-6D77-46A5-B0CD-DFE30320FDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78AD02-BC89-47DD-8005-BE654AF9FFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3285" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="4935" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#阴谋总表" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
